--- a/Question Sheet/DSA 450 Questions.xlsx
+++ b/Question Sheet/DSA 450 Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA Sheet Solutions\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1084F3-B6BF-475D-BD33-D6529F5C67DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFD2BE-8503-419E-87E5-50ADCB188A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1860,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1927,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/Question Sheet/DSA 450 Questions.xlsx
+++ b/Question Sheet/DSA 450 Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA Sheet Solutions\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFD2BE-8503-419E-87E5-50ADCB188A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA500ADD-0C89-40E5-AF86-8848523A4098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="78" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">

--- a/Question Sheet/DSA 450 Questions.xlsx
+++ b/Question Sheet/DSA 450 Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA Sheet Solutions\Question Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE912DB-3107-4F7E-99BD-C44941E39A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779FAB7B-D6A5-4E4C-8B55-F372AE060C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,18 @@
   </si>
   <si>
     <t>Problem No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By yourself</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1866,31 +1878,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="28.9140625" customWidth="1"/>
+    <col min="3" max="3" width="107.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
+    <row r="1" spans="1:5" ht="25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="C2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="11" t="s">
         <v>466</v>
       </c>
@@ -1903,13 +1916,16 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1922,8 +1938,11 @@
       <c r="D6" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
+      <c r="E6" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1936,8 +1955,11 @@
       <c r="D7" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
+      <c r="E7" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1950,8 +1972,11 @@
       <c r="D8" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
+      <c r="E8" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1964,8 +1989,11 @@
       <c r="D9" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
+      <c r="E9" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1978,8 +2006,11 @@
       <c r="D10" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
+      <c r="E10" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1990,10 +2021,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21">
+        <v>468</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -2007,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -2021,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2035,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -2049,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="4">
         <v>11</v>
       </c>
